--- a/ASML.xlsx
+++ b/ASML.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5DFB2E-905D-4554-98B5-C29BFAB6E4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E64EAFB-328C-4B3C-A631-6566178F16F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{40E26FA9-FA23-47D9-8A0D-17BDAE3930EB}"/>
+    <workbookView xWindow="225" yWindow="4980" windowWidth="38175" windowHeight="15240" xr2:uid="{40E26FA9-FA23-47D9-8A0D-17BDAE3930EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
   <si>
     <t>numbers in mio EUR</t>
   </si>
@@ -173,6 +173,33 @@
   <si>
     <t>Q425</t>
   </si>
+  <si>
+    <t>System Growth</t>
+  </si>
+  <si>
+    <t>Revenue Growth</t>
+  </si>
+  <si>
+    <t>Systems Gross Margin</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Service Growth</t>
+  </si>
+  <si>
+    <t>Service Gross Margin</t>
+  </si>
+  <si>
+    <t>n.a.</t>
+  </si>
 </sst>
 </file>
 
@@ -183,7 +210,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +242,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -233,11 +267,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -249,10 +284,17 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -271,16 +313,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>52387</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>335734</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>350022</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>42864</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -309,7 +351,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5795962" y="0"/>
+          <a:off x="6419850" y="504826"/>
           <a:ext cx="3331347" cy="3919538"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -642,7 +684,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +705,7 @@
         <v>2</v>
       </c>
       <c r="H2">
-        <v>565.5</v>
+        <v>659.1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -671,10 +713,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="2">
-        <v>392.3</v>
+        <v>388.2</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -692,7 +734,7 @@
       </c>
       <c r="H4" s="2">
         <f>+H2*H3</f>
-        <v>221845.65</v>
+        <v>255862.62</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -707,7 +749,7 @@
         <v>9103.6</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -718,7 +760,7 @@
         <v>3681</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -727,7 +769,7 @@
       </c>
       <c r="H7" s="2">
         <f>+H4-H5+H6</f>
-        <v>216423.05</v>
+        <v>250440.02</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -747,10 +789,10 @@
   <dimension ref="A1:AO360"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,7 +889,9 @@
       <c r="K3" s="5">
         <v>5740.4</v>
       </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="5">
+        <v>5596.1</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -911,7 +955,9 @@
       <c r="K4" s="5">
         <v>2001.1</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5">
+        <v>2095.6</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -990,7 +1036,7 @@
       </c>
       <c r="L5" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7691.7000000000007</v>
       </c>
       <c r="M5" s="6">
         <f t="shared" si="1"/>
@@ -1073,7 +1119,9 @@
       <c r="K6" s="5">
         <v>3561.8</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5">
+        <v>3562.2</v>
+      </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -1226,7 +1274,7 @@
       </c>
       <c r="L8" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4129.5000000000009</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" si="3"/>
@@ -1309,7 +1357,9 @@
       <c r="K9" s="5">
         <v>1161.0999999999999</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5">
+        <v>1166.7</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -1373,7 +1423,9 @@
       <c r="K10" s="5">
         <v>280.7</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5">
+        <v>298.7</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -1452,7 +1504,7 @@
       </c>
       <c r="L11" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2664.1000000000008</v>
       </c>
       <c r="M11" s="5">
         <f t="shared" si="5"/>
@@ -1535,7 +1587,9 @@
       <c r="K12" s="5">
         <v>49.2</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5">
+        <v>24.8</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -1614,7 +1668,7 @@
       </c>
       <c r="L13" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2688.900000000001</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" si="7"/>
@@ -1697,7 +1751,9 @@
       <c r="K14" s="5">
         <v>465.1</v>
       </c>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5">
+        <v>487.4</v>
+      </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -1776,7 +1832,7 @@
       </c>
       <c r="L15" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2201.5000000000009</v>
       </c>
       <c r="M15" s="5">
         <f t="shared" si="9"/>
@@ -1859,7 +1915,9 @@
       <c r="K16" s="5">
         <v>33</v>
       </c>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5">
+        <v>88.8</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -1938,7 +1996,7 @@
       </c>
       <c r="L17" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2290.3000000000011</v>
       </c>
       <c r="M17" s="5">
         <f t="shared" si="11"/>
@@ -2039,45 +2097,54 @@
       <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="5" t="e">
+      <c r="C19" s="7" t="e">
         <f t="shared" ref="C19:H19" si="12">+C17/C20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D19" s="5" t="e">
+      <c r="D19" s="7" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="7">
         <f t="shared" si="12"/>
         <v>5.2061514997458058</v>
       </c>
-      <c r="F19" s="5" t="e">
+      <c r="F19" s="7" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="7">
         <f t="shared" si="12"/>
         <v>3.1037281257925438</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="7">
         <f t="shared" si="12"/>
         <v>4.9381993896236009</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="7">
         <f>+I17/I20</f>
         <v>4.8129130655821033</v>
       </c>
-      <c r="J19" s="5">
-        <f t="shared" ref="J19:K19" si="13">+J17/J20</f>
+      <c r="J19" s="7">
+        <f t="shared" ref="J19:N19" si="13">+J17/J20</f>
         <v>6.8482074752097626</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="7">
         <f t="shared" si="13"/>
         <v>6.003058883507518</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="L19" s="7">
+        <f t="shared" si="13"/>
+        <v>5.899793920659457</v>
+      </c>
+      <c r="M19" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
@@ -2140,7 +2207,9 @@
       <c r="K20" s="5">
         <v>392.3</v>
       </c>
-      <c r="L20" s="5"/>
+      <c r="L20" s="5">
+        <v>388.2</v>
+      </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -2219,25 +2288,58 @@
       <c r="AO21" s="5"/>
     </row>
     <row r="22" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="G22" s="9" t="e">
+        <f t="shared" ref="G22:G24" si="15">+G3/C3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" ref="H22:H24" si="16">+H3/D3-1</f>
+        <v>0.17752945871578918</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="shared" ref="I22:I24" si="17">+I3/E3-1</f>
+        <v>-6.5868895732512089E-2</v>
+      </c>
+      <c r="J22" s="9" t="e">
+        <f t="shared" ref="J22:J24" si="18">+J3/F3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" ref="K22:K24" si="19">+K3/G3-1</f>
+        <v>0.44743942106457535</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" ref="L22:L23" si="20">+L3/H3-1</f>
+        <v>-1.783771249175059E-3</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" ref="M22:M24" si="21">+M3/I3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="N22" s="9">
+        <f t="shared" ref="N22:N24" si="22">+N3/J3-1</f>
+        <v>-1</v>
+      </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
+      <c r="T22" s="11">
+        <f t="shared" ref="T22:U23" si="23">+T3/S3-1</f>
+        <v>0.42178700349312703</v>
+      </c>
+      <c r="U22" s="11">
+        <f t="shared" si="23"/>
+        <v>-7.7443410244955047E-3</v>
+      </c>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
@@ -2260,25 +2362,58 @@
       <c r="AO22" s="5"/>
     </row>
     <row r="23" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="G23" s="9" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" s="9">
+        <f t="shared" si="16"/>
+        <v>-0.12531209933193876</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="17"/>
+        <v>-0.12203280797684146</v>
+      </c>
+      <c r="J23" s="9" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="19"/>
+        <v>0.51129068801450051</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="20"/>
+        <v>0.61672581391760528</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="N23" s="9">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
+      <c r="T23" s="11">
+        <f t="shared" si="23"/>
+        <v>-2.1451829151503676E-2</v>
+      </c>
+      <c r="U23" s="11">
+        <f t="shared" si="23"/>
+        <v>0.15557216320575096</v>
+      </c>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
@@ -2301,25 +2436,61 @@
       <c r="AO23" s="5"/>
     </row>
     <row r="24" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="16"/>
+        <v>0.10564169923752176</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="17"/>
+        <v>-7.7932845101561399E-2</v>
+      </c>
+      <c r="J24" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" si="19"/>
+        <v>0.46342155009451802</v>
+      </c>
+      <c r="L24" s="10">
+        <f>+L5/H5-1</f>
+        <v>0.11436767454326824</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="N24" s="10">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
+      <c r="S24" s="10" t="e">
+        <f t="shared" ref="S24:U24" si="24">+S5/R5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" s="10">
+        <f t="shared" si="24"/>
+        <v>0.30156233765007023</v>
+      </c>
+      <c r="U24" s="10">
+        <f>+U5/T5-1</f>
+        <v>2.5560171997750292E-2</v>
+      </c>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
@@ -2342,25 +2513,61 @@
       <c r="AO24" s="5"/>
     </row>
     <row r="25" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
+      <c r="S25" s="9">
+        <f t="shared" ref="S25:U25" si="25">+(S3-S6)/S3</f>
+        <v>0.50860968354471392</v>
+      </c>
+      <c r="T25" s="9">
+        <f t="shared" si="25"/>
+        <v>0.53729955421038711</v>
+      </c>
+      <c r="U25" s="9">
+        <f>+(U3-U6)/U3</f>
+        <v>0.52193286691442309</v>
+      </c>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
@@ -2383,25 +2590,61 @@
       <c r="AO25" s="5"/>
     </row>
     <row r="26" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
+      <c r="S26" s="9">
+        <f t="shared" ref="S26:U26" si="26">+(S4-S7)/S4</f>
+        <v>0.49661332729710439</v>
+      </c>
+      <c r="T26" s="9">
+        <f t="shared" si="26"/>
+        <v>0.41788999804266974</v>
+      </c>
+      <c r="U26" s="9">
+        <f>+(U4-U7)/U4</f>
+        <v>0.48199932247235994</v>
+      </c>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
@@ -2424,25 +2667,82 @@
       <c r="AO26" s="5"/>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="9" t="e">
+        <f t="shared" ref="C27:I27" si="27">+C8/C5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="9">
+        <f t="shared" si="27"/>
+        <v>0.51454475555840329</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" si="27"/>
+        <v>0.5136520657731104</v>
+      </c>
+      <c r="F27" s="9" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="9">
+        <f t="shared" si="27"/>
+        <v>0.50975425330812851</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="27"/>
+        <v>0.5134520377265549</v>
+      </c>
+      <c r="I27" s="9">
+        <f>+I8/I5</f>
+        <v>0.51874719016933912</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" ref="J27:N27" si="28">+J8/J5</f>
+        <v>0.51710066070734551</v>
+      </c>
+      <c r="K27" s="9">
+        <f t="shared" si="28"/>
+        <v>0.53990828650778266</v>
+      </c>
+      <c r="L27" s="9">
+        <f t="shared" si="28"/>
+        <v>0.53687741331565197</v>
+      </c>
+      <c r="M27" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
+      <c r="P27" s="9" t="e">
+        <f t="shared" ref="P27:U27" si="29">+P8/P5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q27" s="9" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" s="9" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27" s="9">
+        <f t="shared" si="29"/>
+        <v>0.50535577658760522</v>
+      </c>
+      <c r="T27" s="9">
+        <f t="shared" si="29"/>
+        <v>0.51294881796904768</v>
+      </c>
+      <c r="U27" s="9">
+        <f t="shared" si="29"/>
+        <v>0.51275700653506895</v>
+      </c>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
@@ -2465,25 +2765,82 @@
       <c r="AO27" s="5"/>
     </row>
     <row r="28" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="9" t="e">
+        <f t="shared" ref="C28:I28" si="30">+C11/C5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" si="30"/>
+        <v>0.29387454347408209</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" si="30"/>
+        <v>0.33050987978444107</v>
+      </c>
+      <c r="F28" s="9" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" si="30"/>
+        <v>0.26302457466918711</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="30"/>
+        <v>0.32786172725033685</v>
+      </c>
+      <c r="I28" s="9">
+        <f>+I11/I5</f>
+        <v>0.32704930316199604</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" ref="J28:N28" si="31">+J11/J5</f>
+        <v>0.36224467763527224</v>
+      </c>
+      <c r="K28" s="9">
+        <f t="shared" si="31"/>
+        <v>0.35366531034037324</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" si="31"/>
+        <v>0.34636036246863511</v>
+      </c>
+      <c r="M28" s="9" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="9" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
+      <c r="P28" s="9" t="e">
+        <f t="shared" ref="P28:U28" si="32">+P11/P5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q28" s="9" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R28" s="9" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S28" s="9">
+        <f t="shared" si="32"/>
+        <v>0.30702201819263802</v>
+      </c>
+      <c r="T28" s="9">
+        <f t="shared" si="32"/>
+        <v>0.3281129234174574</v>
+      </c>
+      <c r="U28" s="9">
+        <f t="shared" si="32"/>
+        <v>0.3192382947255944</v>
+      </c>
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
@@ -2506,25 +2863,82 @@
       <c r="AO28" s="5"/>
     </row>
     <row r="29" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="9" t="e">
+        <f t="shared" ref="C29:I29" si="33">+C14/C13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" si="33"/>
+        <v>0.15998244362758551</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="33"/>
+        <v>0.1608610404238455</v>
+      </c>
+      <c r="F29" s="9" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="9">
+        <f t="shared" si="33"/>
+        <v>0.1580135440180587</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="33"/>
+        <v>0.17717243496951354</v>
+      </c>
+      <c r="I29" s="9">
+        <f>+I14/I13</f>
+        <v>0.15697647864809319</v>
+      </c>
+      <c r="J29" s="9">
+        <f t="shared" ref="J29:N29" si="34">+J14/J13</f>
+        <v>0.21530773120742483</v>
+      </c>
+      <c r="K29" s="9">
+        <f t="shared" si="34"/>
+        <v>0.16687596426393028</v>
+      </c>
+      <c r="L29" s="9">
+        <f t="shared" si="34"/>
+        <v>0.1812637137863066</v>
+      </c>
+      <c r="M29" s="9" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="9" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
+      <c r="P29" s="9" t="e">
+        <f t="shared" ref="P29:U29" si="35">+P14/P13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q29" s="9" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R29" s="9" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S29" s="9">
+        <f t="shared" si="35"/>
+        <v>0.15023001502455038</v>
+      </c>
+      <c r="T29" s="9">
+        <f t="shared" si="35"/>
+        <v>0.15806682446193648</v>
+      </c>
+      <c r="U29" s="9">
+        <f t="shared" si="35"/>
+        <v>0.18585773688401305</v>
+      </c>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
